--- a/du_lieu_bai_tap_mysql/du lieu bai tap.xlsx
+++ b/du_lieu_bai_tap_mysql/du lieu bai tap.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workplace\VTILearning\6.Homework\du_lieu_bai_tap_mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37FBD0D-9BE0-4AB6-8F15-B13FEC2A9CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD5C04D-CAFE-4BC6-BBB1-909318534695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-204" yWindow="96" windowWidth="14052" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8268" yWindow="0" windowWidth="14052" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="320">
   <si>
     <t>Department</t>
   </si>
@@ -607,13 +618,391 @@
   </si>
   <si>
     <t>Câu hỏi</t>
+  </si>
+  <si>
+    <t>trainee</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>BirthDate</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>ET_IQ</t>
+  </si>
+  <si>
+    <t>ET_Gmath</t>
+  </si>
+  <si>
+    <t>ET_English</t>
+  </si>
+  <si>
+    <t>TrainingClass</t>
+  </si>
+  <si>
+    <t>EvaluationNote</t>
+  </si>
+  <si>
+    <t>Nguyen Hai Dang</t>
+  </si>
+  <si>
+    <t>Tong Quang Anh</t>
+  </si>
+  <si>
+    <t>Nguyen Van Chien</t>
+  </si>
+  <si>
+    <t>Duong Do</t>
+  </si>
+  <si>
+    <t>Nguyen Chien Thang</t>
+  </si>
+  <si>
+    <t>Ngo Ba Kha</t>
+  </si>
+  <si>
+    <t>Nguyen Thanh Tung</t>
+  </si>
+  <si>
+    <t>Duong Van Huu</t>
+  </si>
+  <si>
+    <t>Tran Tuan Anh</t>
+  </si>
+  <si>
+    <t>Ngo Thi Thu</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>TrainneeID</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>EmployeeNumber</t>
+  </si>
+  <si>
+    <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>DepartmentNumber</t>
+  </si>
+  <si>
+    <t>employee_skill</t>
+  </si>
+  <si>
+    <t>SkillCode</t>
+  </si>
+  <si>
+    <t>DateRegistered</t>
+  </si>
+  <si>
+    <t>Dao Tien Ha</t>
+  </si>
+  <si>
+    <t>Pham Thi Ly</t>
+  </si>
+  <si>
+    <t>Nguyen Van Cong</t>
+  </si>
+  <si>
+    <t>Hoang Kim Phuong</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Dien</t>
+  </si>
+  <si>
+    <t>Nguyen Van Bien</t>
+  </si>
+  <si>
+    <t>Luong Minh cong</t>
+  </si>
+  <si>
+    <t>Ta Duc Tam</t>
+  </si>
+  <si>
+    <t>Nguyen Van Hung</t>
+  </si>
+  <si>
+    <t>Do Viet Dung</t>
+  </si>
+  <si>
+    <t>Chu Thi An</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Xuan</t>
+  </si>
+  <si>
+    <t>Pham Thi Hai</t>
+  </si>
+  <si>
+    <t>product.Name</t>
+  </si>
+  <si>
+    <t>product.ProductSubcategoryID</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>productsubcategory.ProductSubcategoryID</t>
+  </si>
+  <si>
+    <t>productsubcategory.Name</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>product.ListPrice</t>
+  </si>
+  <si>
+    <t>productsubcategory.ProductSubcategoryID = 3</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>countryregion.CountryRegionCode</t>
+  </si>
+  <si>
+    <t>countryregion.Name</t>
+  </si>
+  <si>
+    <t>stateprovince.Name</t>
+  </si>
+  <si>
+    <t>stateprovince.CountryRegionCode</t>
+  </si>
+  <si>
+    <t>salesperson.Bonus</t>
+  </si>
+  <si>
+    <t>salesperson.SalesYTD</t>
+  </si>
+  <si>
+    <t>salesperson.SalesPersonID</t>
+  </si>
+  <si>
+    <t>salesorderheader.SalesOrderID</t>
+  </si>
+  <si>
+    <t>salesorderheader.OrderDate</t>
+  </si>
+  <si>
+    <t>salesorderheader.OnlineOrderFlag</t>
+  </si>
+  <si>
+    <t>employee.Title</t>
+  </si>
+  <si>
+    <t>employee.EmployeeID</t>
+  </si>
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>EmployeeLastName</t>
+  </si>
+  <si>
+    <t>EmployeeFirstName</t>
+  </si>
+  <si>
+    <t>EmployeeHireDate</t>
+  </si>
+  <si>
+    <t>EmployeeStatus</t>
+  </si>
+  <si>
+    <t>SupervisorID</t>
+  </si>
+  <si>
+    <t>SocialSecurityNumber</t>
+  </si>
+  <si>
+    <t>projects</t>
+  </si>
+  <si>
+    <t>ProjectID</t>
+  </si>
+  <si>
+    <t>ManagerID</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>ProjectStartDate</t>
+  </si>
+  <si>
+    <t>ProjectDiscription</t>
+  </si>
+  <si>
+    <t>ProjectDetail</t>
+  </si>
+  <si>
+    <t>ProjectCompletedOn</t>
+  </si>
+  <si>
+    <t>project_module</t>
+  </si>
+  <si>
+    <t>ModuleID</t>
+  </si>
+  <si>
+    <t>ProjectModuleDate</t>
+  </si>
+  <si>
+    <t>ProjectModuleCompletedOn</t>
+  </si>
+  <si>
+    <t>ProjectModuleDiscription</t>
+  </si>
+  <si>
+    <t>work_done</t>
+  </si>
+  <si>
+    <t>WorkDoneID</t>
+  </si>
+  <si>
+    <t>WorkDoneDate</t>
+  </si>
+  <si>
+    <t>WorkDoneDiscription</t>
+  </si>
+  <si>
+    <t>WorkDoneStatus</t>
+  </si>
+  <si>
+    <t>Hai</t>
+  </si>
+  <si>
+    <t>Hoa</t>
+  </si>
+  <si>
+    <t>Thang</t>
+  </si>
+  <si>
+    <t>Lien</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>Chu</t>
+  </si>
+  <si>
+    <t>Work Done</t>
+  </si>
+  <si>
+    <t>In Process</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Automated</t>
+  </si>
+  <si>
+    <t>More Database</t>
+  </si>
+  <si>
+    <t>Build Web</t>
+  </si>
+  <si>
+    <t>Build Automated</t>
+  </si>
+  <si>
+    <t>Build 1</t>
+  </si>
+  <si>
+    <t>Build 2</t>
+  </si>
+  <si>
+    <t>Build 3</t>
+  </si>
+  <si>
+    <t>Build 4</t>
+  </si>
+  <si>
+    <t>Build 5</t>
+  </si>
+  <si>
+    <t>Work 1</t>
+  </si>
+  <si>
+    <t>Work 2</t>
+  </si>
+  <si>
+    <t>Work 3</t>
+  </si>
+  <si>
+    <t>Work 4</t>
+  </si>
+  <si>
+    <t>Work 5</t>
+  </si>
+  <si>
+    <t>Work 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,6 +1037,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -997,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="E28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3208,4 +3603,1663 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10164BB3-74C4-4673-A6C6-90858218E769}">
+  <dimension ref="A1:L55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" t="str">
+        <f>J3&amp;"-"&amp;K3&amp;"-"&amp;L3</f>
+        <v>1990-01-14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1990</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C12" si="0">J4&amp;"-"&amp;K4&amp;"-"&amp;L4</f>
+        <v>1991-02-15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1991</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>1992-03-16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>1992</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="L5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>1993-04-17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1993</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="L6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>1994-05-18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>39</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1994</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="L7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>1992-06-19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>41</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>1992</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>1993-07-20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>46</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1993</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>2000-08-21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2000</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="L10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>1998-09-22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>1998</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="L11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>1995-10-23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1995</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="L12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K13" s="12"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>11</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>13</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="1">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1">
+        <v>14</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="1">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>247</v>
+      </c>
+      <c r="B36" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>246</v>
+      </c>
+      <c r="B40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>259</v>
+      </c>
+      <c r="B50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>260</v>
+      </c>
+      <c r="B51" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA0C491-022F-47F1-8A3C-C034C2C87BAE}">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" t="str">
+        <f>H3&amp;"-"&amp;I3&amp;"-"&amp;J3</f>
+        <v>2016-04-10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1837392849</v>
+      </c>
+      <c r="H3">
+        <v>2016</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D7" si="0">H4&amp;"-"&amp;I4&amp;"-"&amp;J4</f>
+        <v>2016-05-10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>7483293839</v>
+      </c>
+      <c r="H4">
+        <v>2016</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-06-11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>8756746398</v>
+      </c>
+      <c r="H5">
+        <v>2017</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>2018-07-12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3826485930</v>
+      </c>
+      <c r="H6">
+        <v>2018</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-08-14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>2847058373</v>
+      </c>
+      <c r="H7">
+        <v>2019</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F12" t="s">
+        <v>280</v>
+      </c>
+      <c r="G12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ref="D13:D15" si="1">H13&amp;"-"&amp;I13&amp;"-"&amp;J13</f>
+        <v>2018-10-16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" t="s">
+        <v>306</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ref="G13:G15" si="2">K13&amp;"-"&amp;L13&amp;"-"&amp;M13</f>
+        <v>2021-01-24</v>
+      </c>
+      <c r="H13">
+        <v>2018</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>2021</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>2018-11-14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" t="s">
+        <v>307</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>2021-02-24</v>
+      </c>
+      <c r="H14">
+        <v>2018</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>2021</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="M14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>2018-12-18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>305</v>
+      </c>
+      <c r="F15" t="s">
+        <v>308</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>2020-12-30</v>
+      </c>
+      <c r="H15">
+        <v>2018</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>2020</v>
+      </c>
+      <c r="L15">
+        <v>12</v>
+      </c>
+      <c r="M15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E19" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" ref="D20:E24" si="3">H20&amp;"-"&amp;I20&amp;"-"&amp;J20</f>
+        <v>2020-01-24</v>
+      </c>
+      <c r="E20" t="str">
+        <f>K20&amp;"-"&amp;L20&amp;"-"&amp;M20</f>
+        <v>2020-02-10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>309</v>
+      </c>
+      <c r="H20">
+        <v>2020</v>
+      </c>
+      <c r="I20" t="s">
+        <v>213</v>
+      </c>
+      <c r="J20">
+        <v>24</v>
+      </c>
+      <c r="K20">
+        <v>2020</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="3"/>
+        <v>2020-02-24</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" ref="E21:E24" si="4">K21&amp;"-"&amp;L21&amp;"-"&amp;M21</f>
+        <v>2020-02-12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>310</v>
+      </c>
+      <c r="H21">
+        <v>2020</v>
+      </c>
+      <c r="I21" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21">
+        <v>24</v>
+      </c>
+      <c r="K21">
+        <v>2020</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="M21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="3"/>
+        <v>2020-12-30</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="4"/>
+        <v>2020-12-25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>311</v>
+      </c>
+      <c r="H22">
+        <v>2020</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>30</v>
+      </c>
+      <c r="K22">
+        <v>2020</v>
+      </c>
+      <c r="L22">
+        <v>12</v>
+      </c>
+      <c r="M22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="3"/>
+        <v>2020-04-22</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="4"/>
+        <v>2020-05-10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>312</v>
+      </c>
+      <c r="H23">
+        <v>2020</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23">
+        <v>22</v>
+      </c>
+      <c r="K23">
+        <v>2020</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="M23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-05-10</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="4"/>
+        <v>2019-05-10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>313</v>
+      </c>
+      <c r="H24">
+        <v>2019</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>2019</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="M24" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>288</v>
+      </c>
+      <c r="B27" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" t="s">
+        <v>289</v>
+      </c>
+      <c r="E27" t="s">
+        <v>290</v>
+      </c>
+      <c r="F27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" ref="D28:D33" si="5">H28&amp;"-"&amp;I28&amp;"-"&amp;J28</f>
+        <v>2020-01-11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>314</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>2020</v>
+      </c>
+      <c r="I28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="5"/>
+        <v>2020-02-12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>315</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2020</v>
+      </c>
+      <c r="I29" t="s">
+        <v>215</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="5"/>
+        <v>2020-12-13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>316</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2020</v>
+      </c>
+      <c r="I30">
+        <v>12</v>
+      </c>
+      <c r="J30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="5"/>
+        <v>2020-04-14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>317</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>2020</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="J31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="5"/>
+        <v>2019-05-15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>318</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>2019</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="5"/>
+        <v>2019-11-16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>319</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>2019</v>
+      </c>
+      <c r="I33">
+        <v>11</v>
+      </c>
+      <c r="J33">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/du_lieu_bai_tap_mysql/du lieu bai tap.xlsx
+++ b/du_lieu_bai_tap_mysql/du lieu bai tap.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workplace\VTILearning\6.Homework\du_lieu_bai_tap_mysql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1. Workplace\VTILearning\6.Homework\du_lieu_bai_tap_mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD5C04D-CAFE-4BC6-BBB1-909318534695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF2849F-91B3-41AC-B0B2-8877FF486657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8268" yWindow="0" windowWidth="14052" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12888" yWindow="108" windowWidth="8916" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="368">
   <si>
     <t>Department</t>
   </si>
@@ -996,6 +997,150 @@
   </si>
   <si>
     <t>Work 6</t>
+  </si>
+  <si>
+    <t>ThucTap</t>
+  </si>
+  <si>
+    <t>Khoa</t>
+  </si>
+  <si>
+    <t>GiangVien</t>
+  </si>
+  <si>
+    <t>SinhVien</t>
+  </si>
+  <si>
+    <t>DeTai</t>
+  </si>
+  <si>
+    <t>Dia Ly</t>
+  </si>
+  <si>
+    <t>QLTN</t>
+  </si>
+  <si>
+    <t>Cong nghe sinh hoc</t>
+  </si>
+  <si>
+    <t>Toan</t>
+  </si>
+  <si>
+    <t>Ma Khoa</t>
+  </si>
+  <si>
+    <t>Ten Khoa</t>
+  </si>
+  <si>
+    <t>DienThoai</t>
+  </si>
+  <si>
+    <t>MaGV</t>
+  </si>
+  <si>
+    <t>HoTenGV</t>
+  </si>
+  <si>
+    <t>Luong</t>
+  </si>
+  <si>
+    <t>MaKhoa</t>
+  </si>
+  <si>
+    <t>MaSV</t>
+  </si>
+  <si>
+    <t>HoTenSV</t>
+  </si>
+  <si>
+    <t>NamSinh</t>
+  </si>
+  <si>
+    <t>QueQuan</t>
+  </si>
+  <si>
+    <t>Le Van Son</t>
+  </si>
+  <si>
+    <t>Tran Son</t>
+  </si>
+  <si>
+    <t>HuongDan</t>
+  </si>
+  <si>
+    <t>MaDT</t>
+  </si>
+  <si>
+    <t>TenDT</t>
+  </si>
+  <si>
+    <t>KinhPhi</t>
+  </si>
+  <si>
+    <t>NoiThucTap</t>
+  </si>
+  <si>
+    <t>KetQua</t>
+  </si>
+  <si>
+    <t>Nghien cuu</t>
+  </si>
+  <si>
+    <t>Tim hieu</t>
+  </si>
+  <si>
+    <t>Giai phap</t>
+  </si>
+  <si>
+    <t>Ung dung</t>
+  </si>
+  <si>
+    <t>Thuc trang</t>
+  </si>
+  <si>
+    <t>Chinh sach</t>
+  </si>
+  <si>
+    <t>Giang day</t>
+  </si>
+  <si>
+    <t>Doi moi</t>
+  </si>
+  <si>
+    <t>Ha Noi</t>
+  </si>
+  <si>
+    <t>Phu Tho</t>
+  </si>
+  <si>
+    <t>Thai Binh</t>
+  </si>
+  <si>
+    <t>Thanh Hoa</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>Hue</t>
+  </si>
+  <si>
+    <t>Da Nang</t>
+  </si>
+  <si>
+    <t>Cong ty</t>
+  </si>
+  <si>
+    <t>Vien nghien cuu</t>
+  </si>
+  <si>
+    <t>Truong hoc</t>
+  </si>
+  <si>
+    <t>Benh vien</t>
+  </si>
+  <si>
+    <t>Nha may</t>
   </si>
 </sst>
 </file>
@@ -1048,12 +1193,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1094,7 +1245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1110,6 +1261,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1392,7 +1545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView topLeftCell="E28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F48" sqref="F48:F53"/>
     </sheetView>
   </sheetViews>
@@ -3609,8 +3762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10164BB3-74C4-4673-A6C6-90858218E769}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4464,9 +4617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA0C491-022F-47F1-8A3C-C034C2C87BAE}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4834,13 +4985,13 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="13" t="s">
         <v>283</v>
       </c>
       <c r="B19" t="s">
         <v>275</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="13" t="s">
         <v>267</v>
       </c>
       <c r="D19" t="s">
@@ -4854,17 +5005,17 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="13">
         <v>1</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="13">
         <v>1</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" ref="D20:E24" si="3">H20&amp;"-"&amp;I20&amp;"-"&amp;J20</f>
+        <f t="shared" ref="D20:D24" si="3">H20&amp;"-"&amp;I20&amp;"-"&amp;J20</f>
         <v>2020-01-24</v>
       </c>
       <c r="E20" t="str">
@@ -4894,13 +5045,13 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="13">
         <v>2</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="13">
         <v>3</v>
       </c>
       <c r="D21" t="str">
@@ -4934,13 +5085,13 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="13">
         <v>3</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="13">
         <v>2</v>
       </c>
       <c r="D22" t="str">
@@ -4974,13 +5125,13 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="13">
         <v>4</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="13">
         <v>1</v>
       </c>
       <c r="D23" t="str">
@@ -5014,13 +5165,13 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="13">
         <v>5</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="13">
         <v>4</v>
       </c>
       <c r="D24" t="str">
@@ -5062,10 +5213,10 @@
       <c r="A27" t="s">
         <v>288</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="13" t="s">
         <v>283</v>
       </c>
       <c r="D27" t="s">
@@ -5082,10 +5233,10 @@
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="13">
         <v>3</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="13">
         <v>3</v>
       </c>
       <c r="D28" t="str">
@@ -5112,10 +5263,10 @@
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="13">
+        <v>1</v>
+      </c>
+      <c r="C29" s="13">
         <v>2</v>
       </c>
       <c r="D29" t="str">
@@ -5142,10 +5293,10 @@
       <c r="A30">
         <v>3</v>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="13">
+        <v>2</v>
+      </c>
+      <c r="C30" s="13">
         <v>3</v>
       </c>
       <c r="D30" t="str">
@@ -5172,10 +5323,10 @@
       <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="13">
         <v>4</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="13">
         <v>5</v>
       </c>
       <c r="D31" t="str">
@@ -5202,10 +5353,10 @@
       <c r="A32">
         <v>5</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="13">
+        <v>1</v>
+      </c>
+      <c r="C32" s="13">
         <v>3</v>
       </c>
       <c r="D32" t="str">
@@ -5232,10 +5383,10 @@
       <c r="A33">
         <v>6</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="13">
         <v>5</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="13">
         <v>1</v>
       </c>
       <c r="D33" t="str">
@@ -5262,4 +5413,616 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD34BF8-51AC-4EF4-86E5-AF16F69650EE}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3847582948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3950859382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2039940030</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1095930039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1047875930</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1000.25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1000.72</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3003.29</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3955.12</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1000.25</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1990</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1991</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1992</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1989</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1991</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1990</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1987</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1993</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1991</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1990</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C34" s="1">
+        <v>23000</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C35" s="1">
+        <v>49000</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C37" s="1">
+        <v>23000</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C38" s="1">
+        <v>30299</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C40" s="1">
+        <v>30299</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>9.3888999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>8.3917999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5.2994000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>4</v>
+      </c>
+      <c r="B48" s="1">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>